--- a/Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B18FBD-4B9A-4462-A9BB-630087FFCD8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CCEP" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CCEP</t>
   </si>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC8D448-FB94-406B-97B8-76F5938E51ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,88 +706,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12923100</v>
+        <v>12646800</v>
       </c>
       <c r="E8" s="3">
-        <v>12411500</v>
+        <v>12146100</v>
       </c>
       <c r="F8" s="3">
-        <v>10247100</v>
+        <v>10028000</v>
       </c>
       <c r="G8" s="3">
-        <v>7101100</v>
+        <v>6949200</v>
       </c>
       <c r="H8" s="3">
-        <v>6975400</v>
+        <v>6826300</v>
       </c>
       <c r="I8" s="3">
-        <v>9213800</v>
+        <v>9016800</v>
       </c>
       <c r="J8" s="3">
-        <v>9045500</v>
+        <v>8852100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7868500</v>
+        <v>7700300</v>
       </c>
       <c r="E9" s="3">
-        <v>7570100</v>
+        <v>7408200</v>
       </c>
       <c r="F9" s="3">
-        <v>6265200</v>
+        <v>6131200</v>
       </c>
       <c r="G9" s="3">
-        <v>13996800</v>
+        <v>13697600</v>
       </c>
       <c r="H9" s="3">
-        <v>14885400</v>
+        <v>14567200</v>
       </c>
       <c r="I9" s="3">
-        <v>6002600</v>
+        <v>5874300</v>
       </c>
       <c r="J9" s="3">
-        <v>5791700</v>
+        <v>5667900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5054600</v>
+        <v>4946500</v>
       </c>
       <c r="E10" s="3">
-        <v>4841400</v>
+        <v>4737900</v>
       </c>
       <c r="F10" s="3">
-        <v>3981900</v>
+        <v>3896800</v>
       </c>
       <c r="G10" s="3">
-        <v>-6895800</v>
+        <v>-6748300</v>
       </c>
       <c r="H10" s="3">
-        <v>-7910000</v>
+        <v>-7740900</v>
       </c>
       <c r="I10" s="3">
-        <v>3211100</v>
+        <v>3142500</v>
       </c>
       <c r="J10" s="3">
-        <v>3253800</v>
+        <v>3184200</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,7 +800,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,7 +827,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,61 +854,61 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>52700</v>
+        <v>51600</v>
       </c>
       <c r="E14" s="3">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>72900</v>
+        <v>71400</v>
       </c>
       <c r="H14" s="3">
-        <v>90900</v>
+        <v>88900</v>
       </c>
       <c r="I14" s="3">
-        <v>134600</v>
+        <v>131800</v>
       </c>
       <c r="J14" s="3">
-        <v>95400</v>
+        <v>93300</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>48200</v>
+        <v>47200</v>
       </c>
       <c r="E15" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="F15" s="3">
-        <v>37000</v>
+        <v>36200</v>
       </c>
       <c r="G15" s="3">
-        <v>210900</v>
+        <v>206400</v>
       </c>
       <c r="H15" s="3">
-        <v>236700</v>
+        <v>231700</v>
       </c>
       <c r="I15" s="3">
-        <v>213200</v>
+        <v>208600</v>
       </c>
       <c r="J15" s="3">
-        <v>240100</v>
+        <v>235000</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -953,61 +918,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11464500</v>
+        <v>11219400</v>
       </c>
       <c r="E17" s="3">
-        <v>10997700</v>
+        <v>10762600</v>
       </c>
       <c r="F17" s="3">
-        <v>9292300</v>
+        <v>9093600</v>
       </c>
       <c r="G17" s="3">
-        <v>6249500</v>
+        <v>6115900</v>
       </c>
       <c r="H17" s="3">
-        <v>6137300</v>
+        <v>6006100</v>
       </c>
       <c r="I17" s="3">
-        <v>8188300</v>
+        <v>8013200</v>
       </c>
       <c r="J17" s="3">
-        <v>8004300</v>
+        <v>7833100</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1458600</v>
+        <v>1427400</v>
       </c>
       <c r="E18" s="3">
-        <v>1413700</v>
+        <v>1383500</v>
       </c>
       <c r="F18" s="3">
-        <v>954800</v>
+        <v>934400</v>
       </c>
       <c r="G18" s="3">
-        <v>851600</v>
+        <v>833400</v>
       </c>
       <c r="H18" s="3">
-        <v>838100</v>
+        <v>820200</v>
       </c>
       <c r="I18" s="3">
-        <v>1025500</v>
+        <v>1003600</v>
       </c>
       <c r="J18" s="3">
-        <v>1041200</v>
+        <v>1018900</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,142 +985,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43800</v>
+        <v>42800</v>
       </c>
       <c r="E20" s="3">
-        <v>44900</v>
+        <v>43900</v>
       </c>
       <c r="F20" s="3">
-        <v>14600</v>
+        <v>14300</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="H20" s="3">
-        <v>-99900</v>
+        <v>31800</v>
       </c>
       <c r="I20" s="3">
-        <v>-122300</v>
+        <v>-119700</v>
       </c>
       <c r="J20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2078200</v>
+        <v>2033300</v>
       </c>
       <c r="E21" s="3">
-        <v>2009700</v>
+        <v>1966300</v>
       </c>
       <c r="F21" s="3">
-        <v>1387800</v>
+        <v>1357800</v>
       </c>
       <c r="G21" s="3">
-        <v>1142900</v>
+        <v>1118200</v>
       </c>
       <c r="H21" s="3">
-        <v>1000300</v>
+        <v>1108300</v>
       </c>
       <c r="I21" s="3">
-        <v>1249600</v>
+        <v>1222600</v>
       </c>
       <c r="J21" s="3">
-        <v>1421300</v>
+        <v>1390600</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>150300</v>
+        <v>147100</v>
       </c>
       <c r="E22" s="3">
-        <v>158200</v>
+        <v>154800</v>
       </c>
       <c r="F22" s="3">
-        <v>162700</v>
+        <v>159200</v>
       </c>
       <c r="G22" s="3">
-        <v>142500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>139400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>129600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>105500</v>
+        <v>103200</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1352000</v>
+        <v>1323100</v>
       </c>
       <c r="E23" s="3">
-        <v>1300400</v>
+        <v>1272600</v>
       </c>
       <c r="F23" s="3">
-        <v>806700</v>
+        <v>789500</v>
       </c>
       <c r="G23" s="3">
-        <v>722600</v>
+        <v>707100</v>
       </c>
       <c r="H23" s="3">
-        <v>738300</v>
+        <v>722500</v>
       </c>
       <c r="I23" s="3">
-        <v>903200</v>
+        <v>883900</v>
       </c>
       <c r="J23" s="3">
-        <v>939100</v>
+        <v>919000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>362400</v>
+        <v>354700</v>
       </c>
       <c r="E24" s="3">
-        <v>169400</v>
+        <v>165800</v>
       </c>
       <c r="F24" s="3">
-        <v>190700</v>
+        <v>186700</v>
       </c>
       <c r="G24" s="3">
-        <v>147000</v>
+        <v>143800</v>
       </c>
       <c r="H24" s="3">
-        <v>195200</v>
+        <v>191100</v>
       </c>
       <c r="I24" s="3">
-        <v>154800</v>
+        <v>151500</v>
       </c>
       <c r="J24" s="3">
-        <v>179500</v>
+        <v>175700</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,61 +1147,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>989600</v>
+        <v>968400</v>
       </c>
       <c r="E26" s="3">
-        <v>1131000</v>
+        <v>1106800</v>
       </c>
       <c r="F26" s="3">
-        <v>616000</v>
+        <v>602800</v>
       </c>
       <c r="G26" s="3">
-        <v>575600</v>
+        <v>563300</v>
       </c>
       <c r="H26" s="3">
-        <v>543000</v>
+        <v>531400</v>
       </c>
       <c r="I26" s="3">
-        <v>748400</v>
+        <v>732400</v>
       </c>
       <c r="J26" s="3">
-        <v>759600</v>
+        <v>743300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>989600</v>
+        <v>968400</v>
       </c>
       <c r="E27" s="3">
-        <v>1131000</v>
+        <v>1106800</v>
       </c>
       <c r="F27" s="3">
-        <v>616000</v>
+        <v>602800</v>
       </c>
       <c r="G27" s="3">
-        <v>575600</v>
+        <v>563300</v>
       </c>
       <c r="H27" s="3">
-        <v>543000</v>
+        <v>531400</v>
       </c>
       <c r="I27" s="3">
-        <v>748400</v>
+        <v>732400</v>
       </c>
       <c r="J27" s="3">
-        <v>759600</v>
+        <v>743300</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1263,15 +1228,15 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="E29" s="3">
-        <v>-359000</v>
+        <v>-351400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1290,7 +1255,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1317,7 +1282,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1344,61 +1309,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43800</v>
+        <v>-42800</v>
       </c>
       <c r="E32" s="3">
-        <v>-44900</v>
+        <v>-43900</v>
       </c>
       <c r="F32" s="3">
-        <v>-14600</v>
+        <v>-14300</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-13200</v>
       </c>
       <c r="H32" s="3">
-        <v>99900</v>
+        <v>-31800</v>
       </c>
       <c r="I32" s="3">
-        <v>122300</v>
+        <v>119700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1019900</v>
+        <v>998100</v>
       </c>
       <c r="E33" s="3">
-        <v>771900</v>
+        <v>755400</v>
       </c>
       <c r="F33" s="3">
-        <v>616000</v>
+        <v>602800</v>
       </c>
       <c r="G33" s="3">
-        <v>575600</v>
+        <v>563300</v>
       </c>
       <c r="H33" s="3">
-        <v>543000</v>
+        <v>531400</v>
       </c>
       <c r="I33" s="3">
-        <v>748400</v>
+        <v>732400</v>
       </c>
       <c r="J33" s="3">
-        <v>759600</v>
+        <v>743300</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1425,39 +1390,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1019900</v>
+        <v>998100</v>
       </c>
       <c r="E35" s="3">
-        <v>771900</v>
+        <v>755400</v>
       </c>
       <c r="F35" s="3">
-        <v>616000</v>
+        <v>602800</v>
       </c>
       <c r="G35" s="3">
-        <v>575600</v>
+        <v>563300</v>
       </c>
       <c r="H35" s="3">
-        <v>543000</v>
+        <v>531400</v>
       </c>
       <c r="I35" s="3">
-        <v>748400</v>
+        <v>732400</v>
       </c>
       <c r="J35" s="3">
-        <v>759600</v>
+        <v>743300</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1449,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,7 +1462,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,51 +1475,51 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>313000</v>
+        <v>306300</v>
       </c>
       <c r="E41" s="3">
-        <v>341100</v>
+        <v>333800</v>
       </c>
       <c r="F41" s="3">
-        <v>313000</v>
+        <v>306300</v>
       </c>
       <c r="G41" s="3">
-        <v>453300</v>
+        <v>443600</v>
       </c>
       <c r="H41" s="3">
-        <v>627200</v>
+        <v>613800</v>
       </c>
       <c r="I41" s="3">
-        <v>384800</v>
+        <v>376600</v>
       </c>
       <c r="J41" s="3">
-        <v>809000</v>
+        <v>791700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33700</v>
+        <v>32900</v>
       </c>
       <c r="E42" s="3">
-        <v>62800</v>
+        <v>61500</v>
       </c>
       <c r="F42" s="3">
-        <v>120100</v>
+        <v>117500</v>
       </c>
       <c r="G42" s="3">
-        <v>87500</v>
+        <v>85600</v>
       </c>
       <c r="H42" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1564,115 +1529,115 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2147500</v>
+        <v>2101600</v>
       </c>
       <c r="E43" s="3">
-        <v>2500900</v>
+        <v>2447400</v>
       </c>
       <c r="F43" s="3">
-        <v>2546900</v>
+        <v>2492500</v>
       </c>
       <c r="G43" s="3">
-        <v>4325300</v>
+        <v>4232800</v>
       </c>
       <c r="H43" s="3">
-        <v>4670800</v>
+        <v>4571000</v>
       </c>
       <c r="I43" s="3">
-        <v>1799700</v>
+        <v>1761200</v>
       </c>
       <c r="J43" s="3">
-        <v>1680700</v>
+        <v>1644800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>777500</v>
+        <v>760900</v>
       </c>
       <c r="E44" s="3">
-        <v>729300</v>
+        <v>713700</v>
       </c>
       <c r="F44" s="3">
-        <v>755100</v>
+        <v>739000</v>
       </c>
       <c r="G44" s="3">
-        <v>1209500</v>
+        <v>1183600</v>
       </c>
       <c r="H44" s="3">
-        <v>1274600</v>
+        <v>1247300</v>
       </c>
       <c r="I44" s="3">
-        <v>507100</v>
+        <v>496300</v>
       </c>
       <c r="J44" s="3">
-        <v>433100</v>
+        <v>423800</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84100</v>
+        <v>82400</v>
       </c>
       <c r="E45" s="3">
-        <v>84100</v>
+        <v>82400</v>
       </c>
       <c r="F45" s="3">
-        <v>107700</v>
+        <v>105400</v>
       </c>
       <c r="G45" s="3">
-        <v>345600</v>
+        <v>338200</v>
       </c>
       <c r="H45" s="3">
-        <v>510500</v>
+        <v>499600</v>
       </c>
       <c r="I45" s="3">
-        <v>189600</v>
+        <v>185600</v>
       </c>
       <c r="J45" s="3">
-        <v>176200</v>
+        <v>172400</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3355900</v>
+        <v>3284100</v>
       </c>
       <c r="E46" s="3">
-        <v>3718300</v>
+        <v>3638800</v>
       </c>
       <c r="F46" s="3">
-        <v>3842800</v>
+        <v>3760700</v>
       </c>
       <c r="G46" s="3">
-        <v>2112700</v>
+        <v>2067500</v>
       </c>
       <c r="H46" s="3">
-        <v>2253000</v>
+        <v>2204800</v>
       </c>
       <c r="I46" s="3">
-        <v>2881300</v>
+        <v>2819700</v>
       </c>
       <c r="J46" s="3">
-        <v>3098900</v>
+        <v>3032700</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1699,61 +1664,61 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4492400</v>
+        <v>4396400</v>
       </c>
       <c r="E48" s="3">
-        <v>4420600</v>
+        <v>4326100</v>
       </c>
       <c r="F48" s="3">
-        <v>4584500</v>
+        <v>4486400</v>
       </c>
       <c r="G48" s="3">
-        <v>6045300</v>
+        <v>5916000</v>
       </c>
       <c r="H48" s="3">
-        <v>6196800</v>
+        <v>6064300</v>
       </c>
       <c r="I48" s="3">
-        <v>2640000</v>
+        <v>2583600</v>
       </c>
       <c r="J48" s="3">
-        <v>2605300</v>
+        <v>2549600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12101800</v>
+        <v>11843000</v>
       </c>
       <c r="E49" s="3">
-        <v>12118600</v>
+        <v>11859500</v>
       </c>
       <c r="F49" s="3">
-        <v>11980600</v>
+        <v>11724400</v>
       </c>
       <c r="G49" s="3">
-        <v>11076300</v>
+        <v>10839500</v>
       </c>
       <c r="H49" s="3">
-        <v>11132400</v>
+        <v>10894400</v>
       </c>
       <c r="I49" s="3">
-        <v>4631600</v>
+        <v>4532500</v>
       </c>
       <c r="J49" s="3">
-        <v>4549700</v>
+        <v>4452400</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1780,7 +1745,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1807,34 +1772,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>488100</v>
+        <v>477600</v>
       </c>
       <c r="E52" s="3">
-        <v>156000</v>
+        <v>152600</v>
       </c>
       <c r="F52" s="3">
-        <v>425200</v>
+        <v>416100</v>
       </c>
       <c r="G52" s="3">
-        <v>409500</v>
+        <v>400800</v>
       </c>
       <c r="H52" s="3">
-        <v>490300</v>
+        <v>479800</v>
       </c>
       <c r="I52" s="3">
-        <v>534100</v>
+        <v>522600</v>
       </c>
       <c r="J52" s="3">
-        <v>416300</v>
+        <v>407400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1861,34 +1826,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20438200</v>
+        <v>20001200</v>
       </c>
       <c r="E54" s="3">
-        <v>20413500</v>
+        <v>19977000</v>
       </c>
       <c r="F54" s="3">
-        <v>20833100</v>
+        <v>20387700</v>
       </c>
       <c r="G54" s="3">
-        <v>7849400</v>
+        <v>7681600</v>
       </c>
       <c r="H54" s="3">
-        <v>7907800</v>
+        <v>7738700</v>
       </c>
       <c r="I54" s="3">
-        <v>10687000</v>
+        <v>10458500</v>
       </c>
       <c r="J54" s="3">
-        <v>10670100</v>
+        <v>10442000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,7 +1866,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,169 +1879,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1239800</v>
+        <v>1213300</v>
       </c>
       <c r="E57" s="3">
-        <v>1185900</v>
+        <v>1160600</v>
       </c>
       <c r="F57" s="3">
-        <v>1014300</v>
+        <v>992600</v>
       </c>
       <c r="G57" s="3">
-        <v>2714100</v>
+        <v>2656100</v>
       </c>
       <c r="H57" s="3">
-        <v>2835300</v>
+        <v>2774600</v>
       </c>
       <c r="I57" s="3">
-        <v>708000</v>
+        <v>692800</v>
       </c>
       <c r="J57" s="3">
-        <v>1513600</v>
+        <v>1481200</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>550900</v>
+        <v>539100</v>
       </c>
       <c r="E58" s="3">
-        <v>307400</v>
+        <v>300900</v>
       </c>
       <c r="F58" s="3">
-        <v>981700</v>
+        <v>960800</v>
       </c>
       <c r="G58" s="3">
-        <v>978400</v>
+        <v>957500</v>
       </c>
       <c r="H58" s="3">
-        <v>1295900</v>
+        <v>1268200</v>
       </c>
       <c r="I58" s="3">
-        <v>124500</v>
+        <v>121900</v>
       </c>
       <c r="J58" s="3">
-        <v>709100</v>
+        <v>693900</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2463900</v>
+        <v>2411200</v>
       </c>
       <c r="E59" s="3">
-        <v>2194600</v>
+        <v>2147700</v>
       </c>
       <c r="F59" s="3">
-        <v>2213700</v>
+        <v>2166400</v>
       </c>
       <c r="G59" s="3">
-        <v>2785900</v>
+        <v>2726300</v>
       </c>
       <c r="H59" s="3">
-        <v>2882400</v>
+        <v>2820800</v>
       </c>
       <c r="I59" s="3">
-        <v>1630300</v>
+        <v>1595400</v>
       </c>
       <c r="J59" s="3">
-        <v>671000</v>
+        <v>656600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4254600</v>
+        <v>4163600</v>
       </c>
       <c r="E60" s="3">
-        <v>3688000</v>
+        <v>3609100</v>
       </c>
       <c r="F60" s="3">
-        <v>4209700</v>
+        <v>4119700</v>
       </c>
       <c r="G60" s="3">
-        <v>2250700</v>
+        <v>2202600</v>
       </c>
       <c r="H60" s="3">
-        <v>2417900</v>
+        <v>2366200</v>
       </c>
       <c r="I60" s="3">
-        <v>2462800</v>
+        <v>2410100</v>
       </c>
       <c r="J60" s="3">
-        <v>2893600</v>
+        <v>2831700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5752400</v>
+        <v>5629400</v>
       </c>
       <c r="E61" s="3">
-        <v>6141800</v>
+        <v>6010500</v>
       </c>
       <c r="F61" s="3">
-        <v>6240500</v>
+        <v>6107100</v>
       </c>
       <c r="G61" s="3">
-        <v>3502900</v>
+        <v>3428000</v>
       </c>
       <c r="H61" s="3">
-        <v>3064200</v>
+        <v>2998600</v>
       </c>
       <c r="I61" s="3">
-        <v>4180500</v>
+        <v>4091100</v>
       </c>
       <c r="J61" s="3">
-        <v>3179700</v>
+        <v>3111700</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3066400</v>
+        <v>3000800</v>
       </c>
       <c r="E62" s="3">
-        <v>3083200</v>
+        <v>3017300</v>
       </c>
       <c r="F62" s="3">
-        <v>3133700</v>
+        <v>3066700</v>
       </c>
       <c r="G62" s="3">
-        <v>2365200</v>
+        <v>2314600</v>
       </c>
       <c r="H62" s="3">
-        <v>2438100</v>
+        <v>2386000</v>
       </c>
       <c r="I62" s="3">
-        <v>1485500</v>
+        <v>1453800</v>
       </c>
       <c r="J62" s="3">
-        <v>1575300</v>
+        <v>1541600</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2103,7 +2068,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2130,7 +2095,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2157,34 +2122,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13073400</v>
+        <v>12793900</v>
       </c>
       <c r="E66" s="3">
-        <v>12913000</v>
+        <v>12636900</v>
       </c>
       <c r="F66" s="3">
-        <v>13583900</v>
+        <v>13293500</v>
       </c>
       <c r="G66" s="3">
-        <v>6872200</v>
+        <v>6725300</v>
       </c>
       <c r="H66" s="3">
-        <v>6576000</v>
+        <v>6435400</v>
       </c>
       <c r="I66" s="3">
-        <v>8128800</v>
+        <v>7955000</v>
       </c>
       <c r="J66" s="3">
-        <v>7648600</v>
+        <v>7485100</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2197,7 +2162,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2224,7 +2189,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2251,7 +2216,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2278,7 +2243,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2305,34 +2270,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7807900</v>
+        <v>7641000</v>
       </c>
       <c r="E72" s="3">
-        <v>7916800</v>
+        <v>7747500</v>
       </c>
       <c r="F72" s="3">
-        <v>7585800</v>
+        <v>7423600</v>
       </c>
       <c r="G72" s="3">
-        <v>4437500</v>
+        <v>4342600</v>
       </c>
       <c r="H72" s="3">
-        <v>3746300</v>
+        <v>3666200</v>
       </c>
       <c r="I72" s="3">
-        <v>1769400</v>
+        <v>1731500</v>
       </c>
       <c r="J72" s="3">
-        <v>1263400</v>
+        <v>1236300</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2359,7 +2324,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2386,7 +2351,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2413,34 +2378,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7364700</v>
+        <v>7207300</v>
       </c>
       <c r="E76" s="3">
-        <v>7500500</v>
+        <v>7340100</v>
       </c>
       <c r="F76" s="3">
-        <v>7249200</v>
+        <v>7094200</v>
       </c>
       <c r="G76" s="3">
-        <v>977300</v>
+        <v>956400</v>
       </c>
       <c r="H76" s="3">
-        <v>1331800</v>
+        <v>1303300</v>
       </c>
       <c r="I76" s="3">
-        <v>2558100</v>
+        <v>2503400</v>
       </c>
       <c r="J76" s="3">
-        <v>3021500</v>
+        <v>2956900</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2467,12 +2432,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2499,34 +2464,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1019900</v>
+        <v>998100</v>
       </c>
       <c r="E81" s="3">
-        <v>771900</v>
+        <v>755400</v>
       </c>
       <c r="F81" s="3">
-        <v>616000</v>
+        <v>602800</v>
       </c>
       <c r="G81" s="3">
-        <v>575600</v>
+        <v>563300</v>
       </c>
       <c r="H81" s="3">
-        <v>543000</v>
+        <v>531400</v>
       </c>
       <c r="I81" s="3">
-        <v>748400</v>
+        <v>732400</v>
       </c>
       <c r="J81" s="3">
-        <v>759600</v>
+        <v>743300</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2539,34 +2504,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>574500</v>
+        <v>562200</v>
       </c>
       <c r="E83" s="3">
-        <v>549800</v>
+        <v>538000</v>
       </c>
       <c r="F83" s="3">
-        <v>417400</v>
+        <v>408500</v>
       </c>
       <c r="G83" s="3">
-        <v>277100</v>
+        <v>271200</v>
       </c>
       <c r="H83" s="3">
-        <v>261400</v>
+        <v>255800</v>
       </c>
       <c r="I83" s="3">
-        <v>345600</v>
+        <v>338200</v>
       </c>
       <c r="J83" s="3">
-        <v>375900</v>
+        <v>367800</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2593,7 +2558,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2620,7 +2585,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2647,7 +2612,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2674,7 +2639,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2701,34 +2666,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2026300</v>
+        <v>1983000</v>
       </c>
       <c r="E89" s="3">
-        <v>1821000</v>
+        <v>1782100</v>
       </c>
       <c r="F89" s="3">
-        <v>1395800</v>
+        <v>1365900</v>
       </c>
       <c r="G89" s="3">
-        <v>1034500</v>
+        <v>1012400</v>
       </c>
       <c r="H89" s="3">
-        <v>914400</v>
+        <v>894900</v>
       </c>
       <c r="I89" s="3">
-        <v>934600</v>
+        <v>914600</v>
       </c>
       <c r="J89" s="3">
-        <v>1062500</v>
+        <v>1039800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,34 +2706,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-589000</v>
+        <v>-576500</v>
       </c>
       <c r="E91" s="3">
-        <v>-543000</v>
+        <v>-531400</v>
       </c>
       <c r="F91" s="3">
-        <v>-515000</v>
+        <v>-504000</v>
       </c>
       <c r="G91" s="3">
-        <v>-687800</v>
+        <v>-673100</v>
       </c>
       <c r="H91" s="3">
-        <v>-621600</v>
+        <v>-608300</v>
       </c>
       <c r="I91" s="3">
-        <v>-351200</v>
+        <v>-343700</v>
       </c>
       <c r="J91" s="3">
-        <v>-424100</v>
+        <v>-415000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2795,7 +2760,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2822,34 +2787,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-668700</v>
+        <v>-654400</v>
       </c>
       <c r="E94" s="3">
-        <v>-547500</v>
+        <v>-535800</v>
       </c>
       <c r="F94" s="3">
-        <v>-429700</v>
+        <v>-420500</v>
       </c>
       <c r="G94" s="3">
-        <v>-305200</v>
+        <v>-298700</v>
       </c>
       <c r="H94" s="3">
-        <v>-232300</v>
+        <v>-227300</v>
       </c>
       <c r="I94" s="3">
-        <v>-370300</v>
+        <v>-362300</v>
       </c>
       <c r="J94" s="3">
-        <v>-418500</v>
+        <v>-409600</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2862,34 +2827,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-575600</v>
+        <v>-563300</v>
       </c>
       <c r="E96" s="3">
-        <v>-548700</v>
+        <v>-536900</v>
       </c>
       <c r="F96" s="3">
-        <v>-228900</v>
+        <v>-224000</v>
       </c>
       <c r="G96" s="3">
-        <v>-548700</v>
+        <v>-536900</v>
       </c>
       <c r="H96" s="3">
-        <v>-483600</v>
+        <v>-473200</v>
       </c>
       <c r="I96" s="3">
-        <v>-239000</v>
+        <v>-233900</v>
       </c>
       <c r="J96" s="3">
-        <v>-209800</v>
+        <v>-205300</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2916,7 +2881,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2943,7 +2908,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2970,34 +2935,34 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1412600</v>
+        <v>-1382400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1292500</v>
+        <v>-1264900</v>
       </c>
       <c r="F100" s="3">
-        <v>-702400</v>
+        <v>-687300</v>
       </c>
       <c r="G100" s="3">
-        <v>-768600</v>
+        <v>-752100</v>
       </c>
       <c r="H100" s="3">
-        <v>-759600</v>
+        <v>-743300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1005300</v>
+        <v>-983800</v>
       </c>
       <c r="J100" s="3">
-        <v>-623800</v>
+        <v>-610500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3005,49 +2970,49 @@
         <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="G101" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="H101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I101" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="J101" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-57200</v>
+        <v>-56000</v>
       </c>
       <c r="E102" s="3">
-        <v>-29200</v>
+        <v>-28500</v>
       </c>
       <c r="F102" s="3">
-        <v>258100</v>
+        <v>252500</v>
       </c>
       <c r="G102" s="3">
-        <v>-31400</v>
+        <v>-30700</v>
       </c>
       <c r="H102" s="3">
-        <v>-74100</v>
+        <v>-72500</v>
       </c>
       <c r="I102" s="3">
-        <v>-424100</v>
+        <v>-415000</v>
       </c>
       <c r="J102" s="3">
-        <v>41500</v>
+        <v>40600</v>
       </c>
       <c r="K102" s="3"/>
     </row>
